--- a/csv/svm/svm_pc200fda_sigmoid.xlsx
+++ b/csv/svm/svm_pc200fda_sigmoid.xlsx
@@ -7,16 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Best Par.1" r:id="rId3" sheetId="1"/>
-    <sheet name="Best Perf.1" r:id="rId4" sheetId="2"/>
-    <sheet name="Perf.2" r:id="rId5" sheetId="3"/>
-    <sheet name="Best Par.2" r:id="rId6" sheetId="4"/>
-    <sheet name="Best Perf.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sel. Par.1" r:id="rId4" sheetId="2"/>
+    <sheet name="Best Perf.1" r:id="rId5" sheetId="3"/>
+    <sheet name="Perf.2" r:id="rId6" sheetId="4"/>
+    <sheet name="Sel. Par.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Best Par.2" r:id="rId8" sheetId="6"/>
+    <sheet name="Best Perf.2" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>cost</t>
   </si>
@@ -150,6 +152,39 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -166,7 +201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -194,10 +229,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>0.004545454545454542</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401712</v>
       </c>
     </row>
     <row r="3">
@@ -208,10 +243,10 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>0.004545454545454542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>0.014373989364401712</v>
       </c>
     </row>
     <row r="4">
@@ -345,7 +380,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -378,7 +440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
